--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6638,260 +6638,260 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,260 +6638,260 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
